--- a/ExcelCharts.xlsx
+++ b/ExcelCharts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t xml:space="preserve">Dimensions </t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>Running without specifying OMP_NUM_THREADS 10000 Data Points</t>
+  </si>
+  <si>
+    <t>Running without specifying various threads and Data Points</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Data Points</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Max. Value</t>
   </si>
 </sst>
 </file>
@@ -81,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -113,8 +131,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -122,8 +149,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -134,17 +163,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -325,6 +359,66 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -335,8 +429,8 @@
   <autoFilter ref="B2:D6"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="5"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="4"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="7"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -347,8 +441,8 @@
   <autoFilter ref="B10:D14"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="3"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="2"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="5"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -359,6 +453,22 @@
   <autoFilter ref="B18:D22"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="3"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="B25:H33" totalsRowShown="0">
+  <autoFilter ref="B25:H33"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Threads"/>
+    <tableColumn id="4" name="Data Points"/>
+    <tableColumn id="5" name="Dimensions"/>
+    <tableColumn id="6" name="K"/>
+    <tableColumn id="7" name="Max. Value"/>
     <tableColumn id="2" name="Matrix Calc Time" dataDxfId="1"/>
     <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="0"/>
   </tableColumns>
@@ -688,17 +798,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D22"/>
+  <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -821,12 +934,12 @@
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:8">
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -837,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="16" thickBot="1">
+    <row r="19" spans="2:8" ht="16" thickBot="1">
       <c r="B19">
         <v>100</v>
       </c>
@@ -848,7 +961,7 @@
         <v>1.8420000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="16" thickBot="1">
+    <row r="20" spans="2:8" ht="16" thickBot="1">
       <c r="B20">
         <v>1000</v>
       </c>
@@ -859,27 +972,214 @@
         <v>1.534E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="16" thickBot="1">
+    <row r="21" spans="2:8" ht="16" thickBot="1">
       <c r="B21">
         <v>10000</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="16" thickBot="1">
+    <row r="22" spans="2:8" ht="16" thickBot="1">
       <c r="B22">
         <v>100000</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="16" thickBot="1">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>10000</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" ht="16" thickBot="1">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>10000</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" ht="16" thickBot="1">
+      <c r="B28">
+        <f>B27*2</f>
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>10000</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" ht="16" thickBot="1">
+      <c r="B29">
+        <f t="shared" ref="B29:B33" si="0">B28*2</f>
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>10000</v>
+      </c>
+      <c r="D29">
+        <v>1000</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>10000</v>
+      </c>
+      <c r="D30">
+        <v>1000</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>10000</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>10000</v>
+      </c>
+      <c r="D32">
+        <v>1000</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="C33">
+        <v>10000</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/ExcelCharts.xlsx
+++ b/ExcelCharts.xlsx
@@ -99,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,17 +131,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -151,8 +142,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -163,19 +162,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -424,9 +428,572 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matrix Calc Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.001135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.010645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.254758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.189028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Seeking Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2089559320"/>
+        <c:axId val="-2089556232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2089559320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2089556232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2089556232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2089559320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matrix Calc Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.113594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.07526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.907067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Seeking Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$24:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2093946264"/>
+        <c:axId val="-2090679464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2093946264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2090679464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2090679464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2093946264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matrix Calc Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$40:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11.424268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115.140866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Seeking Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$40:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.001842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2087012536"/>
+        <c:axId val="-2087256792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2087012536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2087256792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2087256792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2087012536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474134</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1286932</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>406399</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:D6" totalsRowShown="0">
-  <autoFilter ref="B2:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:D10" totalsRowShown="0">
+  <autoFilter ref="B6:D10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
     <tableColumn id="2" name="Matrix Calc Time" dataDxfId="7"/>
@@ -437,8 +1004,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:D14" totalsRowShown="0">
-  <autoFilter ref="B10:D14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B23:D27" totalsRowShown="0">
+  <autoFilter ref="B23:D27"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
     <tableColumn id="2" name="Matrix Calc Time" dataDxfId="5"/>
@@ -449,8 +1016,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B18:D22" totalsRowShown="0">
-  <autoFilter ref="B18:D22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B39:D43" totalsRowShown="0">
+  <autoFilter ref="B39:D43"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
     <tableColumn id="2" name="Matrix Calc Time" dataDxfId="3"/>
@@ -461,8 +1028,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="B25:H33" totalsRowShown="0">
-  <autoFilter ref="B25:H33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="B51:H59" totalsRowShown="0">
+  <autoFilter ref="B51:H59"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Threads"/>
     <tableColumn id="4" name="Data Points"/>
@@ -472,7 +1039,7 @@
     <tableColumn id="2" name="Matrix Calc Time" dataDxfId="1"/>
     <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -798,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H33"/>
+  <dimension ref="B5:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -814,372 +1381,405 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="3" t="s">
+    <row r="5" spans="2:4">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="16" thickBot="1">
-      <c r="B3">
+    <row r="7" spans="2:4" ht="16" thickBot="1">
+      <c r="B7">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C7" s="1">
         <v>1.1349999999999999E-3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D7" s="1">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="16" thickBot="1">
-      <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="8" spans="2:4" ht="16" thickBot="1">
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1">
         <v>1.0645E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D8" s="1">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="16" thickBot="1">
-      <c r="B5">
+    <row r="9" spans="2:4" ht="16" thickBot="1">
+      <c r="B9">
         <v>10000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C9" s="1">
         <v>0.25475799999999998</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D9" s="1">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="16" thickBot="1">
-      <c r="B6">
+    <row r="10" spans="2:4" ht="16" thickBot="1">
+      <c r="B10">
         <v>100000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C10" s="2">
         <v>2.189028</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D10" s="2">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="3" t="s">
+    <row r="22" spans="2:4">
+      <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="16" thickBot="1">
-      <c r="B11">
+    <row r="24" spans="2:4" ht="16" thickBot="1">
+      <c r="B24">
         <v>100</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C24" s="1">
         <v>0.113594</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D24" s="1">
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="16" thickBot="1">
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="1">
+    <row r="25" spans="2:4" ht="16" thickBot="1">
+      <c r="B25">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="1">
         <v>1.0752600000000001</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D25" s="1">
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="16" thickBot="1">
-      <c r="B13">
+    <row r="26" spans="2:4" ht="16" thickBot="1">
+      <c r="B26">
         <v>10000</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C26" s="1">
         <v>12.135</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D26" s="1">
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="16" thickBot="1">
-      <c r="B14">
+    <row r="27" spans="2:4" ht="16" thickBot="1">
+      <c r="B27">
         <v>100000</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C27" s="2">
         <v>114.907067</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D27" s="1">
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="3" t="s">
+    <row r="38" spans="2:4">
+      <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" t="s">
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C39" t="s">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="16" thickBot="1">
-      <c r="B19">
+    <row r="40" spans="2:4" ht="16" thickBot="1">
+      <c r="B40">
         <v>100</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C40" s="1">
         <v>11.424268</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D40" s="1">
         <v>1.8420000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="16" thickBot="1">
-      <c r="B20">
-        <v>1000</v>
-      </c>
-      <c r="C20" s="1">
+    <row r="41" spans="2:4" ht="16" thickBot="1">
+      <c r="B41">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="1">
         <v>115.140866</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D41" s="1">
         <v>1.534E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="16" thickBot="1">
-      <c r="B21">
+    <row r="42" spans="2:4" ht="16" thickBot="1">
+      <c r="B42">
         <v>10000</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" ht="16" thickBot="1">
-      <c r="B22">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="2:4" ht="16" thickBot="1">
+      <c r="B43">
         <v>100000</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="3" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" t="s">
+    <row r="51" spans="2:8">
+      <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C51" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E51" t="s">
         <v>10</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G51" t="s">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H51" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="16" thickBot="1">
-      <c r="B26">
+    <row r="52" spans="2:8" ht="16" thickBot="1">
+      <c r="B52">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C52">
         <v>10000</v>
       </c>
-      <c r="D26">
-        <v>1000</v>
-      </c>
-      <c r="E26">
+      <c r="D52">
+        <v>1000</v>
+      </c>
+      <c r="E52">
         <v>50</v>
       </c>
-      <c r="F26">
-        <v>1000</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:8" ht="16" thickBot="1">
-      <c r="B27">
+      <c r="F52">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="1">
+        <v>112.225433</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1.5070000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="16" thickBot="1">
+      <c r="B53">
         <v>2</v>
       </c>
-      <c r="C27">
+      <c r="C53">
         <v>10000</v>
       </c>
-      <c r="D27">
-        <v>1000</v>
-      </c>
-      <c r="E27">
+      <c r="D53">
+        <v>1000</v>
+      </c>
+      <c r="E53">
         <v>50</v>
       </c>
-      <c r="F27">
-        <v>1000</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8" ht="16" thickBot="1">
-      <c r="B28">
-        <f>B27*2</f>
+      <c r="F53">
+        <v>1000</v>
+      </c>
+      <c r="G53" s="1">
+        <v>57.634889999999999</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1.2949999999999999E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="16" thickBot="1">
+      <c r="B54">
+        <f>B53*2</f>
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="C54">
         <v>10000</v>
       </c>
-      <c r="D28">
-        <v>1000</v>
-      </c>
-      <c r="E28">
+      <c r="D54">
+        <v>1000</v>
+      </c>
+      <c r="E54">
         <v>50</v>
       </c>
-      <c r="F28">
-        <v>1000</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8" ht="16" thickBot="1">
-      <c r="B29">
-        <f t="shared" ref="B29:B33" si="0">B28*2</f>
+      <c r="F54">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="1">
+        <v>23.642496000000001</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1.2340000000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="16" thickBot="1">
+      <c r="B55">
+        <f t="shared" ref="B55:B59" si="0">B54*2</f>
         <v>8</v>
       </c>
-      <c r="C29">
+      <c r="C55">
         <v>10000</v>
       </c>
-      <c r="D29">
-        <v>1000</v>
-      </c>
-      <c r="E29">
+      <c r="D55">
+        <v>1000</v>
+      </c>
+      <c r="E55">
         <v>50</v>
       </c>
-      <c r="F29">
-        <v>1000</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30">
+      <c r="F55">
+        <v>1000</v>
+      </c>
+      <c r="G55" s="1">
+        <v>12.352129</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.2279999999999999E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="16" thickBot="1">
+      <c r="B56">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C30">
+      <c r="C56">
         <v>10000</v>
       </c>
-      <c r="D30">
-        <v>1000</v>
-      </c>
-      <c r="E30">
+      <c r="D56">
+        <v>1000</v>
+      </c>
+      <c r="E56">
         <v>50</v>
       </c>
-      <c r="F30">
-        <v>1000</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31">
+      <c r="F56">
+        <v>1000</v>
+      </c>
+      <c r="G56" s="1">
+        <v>8.2089569999999998</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2.4881E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="16" thickBot="1">
+      <c r="B57">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C31">
+      <c r="C57">
         <v>10000</v>
       </c>
-      <c r="D31">
-        <v>1000</v>
-      </c>
-      <c r="E31">
+      <c r="D57">
+        <v>1000</v>
+      </c>
+      <c r="E57">
         <v>50</v>
       </c>
-      <c r="F31">
-        <v>1000</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32">
+      <c r="F57">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="1">
+        <v>8.5738280000000007</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1.3240000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="16" thickBot="1">
+      <c r="B58">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C32">
+      <c r="C58">
         <v>10000</v>
       </c>
-      <c r="D32">
-        <v>1000</v>
-      </c>
-      <c r="E32">
+      <c r="D58">
+        <v>1000</v>
+      </c>
+      <c r="E58">
         <v>50</v>
       </c>
-      <c r="F32">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33">
+      <c r="F58">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="1">
+        <v>10.698535</v>
+      </c>
+      <c r="H58" s="2">
+        <v>7.2356509999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="16" thickBot="1">
+      <c r="B59">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="C33">
+      <c r="C59">
         <v>10000</v>
       </c>
-      <c r="D33">
-        <v>1000</v>
-      </c>
-      <c r="E33">
+      <c r="D59">
+        <v>1000</v>
+      </c>
+      <c r="E59">
         <v>50</v>
       </c>
-      <c r="F33">
-        <v>1000</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="F59">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1.6850000000000001E-3</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1.407E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/ExcelCharts.xlsx
+++ b/ExcelCharts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-5440" yWindow="-24020" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t xml:space="preserve">Dimensions </t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Max. Value</t>
+  </si>
+  <si>
+    <t>Running without specifying various threads and incrementing  Data Points</t>
   </si>
 </sst>
 </file>
@@ -132,8 +135,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -163,7 +176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -172,6 +185,11 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -180,9 +198,74 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -442,6 +525,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>100 Data Points: Dimensions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -452,19 +558,32 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+            <c:v>100 Data Points</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Table1[[Dimensions ]]</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Matrix Calc Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:f>Table1[Matrix Calc Time]</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -479,43 +598,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.189028</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg. Seeking Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$7:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.1E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,20 +614,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2089559320"/>
-        <c:axId val="-2089556232"/>
+        <c:axId val="-2090088312"/>
+        <c:axId val="-2090276168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2089559320"/>
+        <c:axId val="-2090088312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089556232"/>
+        <c:crossAx val="-2090276168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -553,7 +636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2089556232"/>
+        <c:axId val="-2090276168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,7 +647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089559320"/>
+        <c:crossAx val="-2090088312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -600,6 +683,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>100 Data Points: Dimensions vs Matrix</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Calc Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -610,70 +717,46 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Matrix Calc Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>100 Data Points</c:v>
           </c:tx>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$24:$C$27</c:f>
+              <c:f>Table1[[Dimensions ]]</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.113594</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.07526</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.135</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114.907067</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg. Seeking Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$24:$D$27</c:f>
+              <c:f>Table1[Avg. Seeking Time]</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.000112</c:v>
+                  <c:v>1.1E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000112</c:v>
+                  <c:v>1.1E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000112</c:v>
+                  <c:v>1.1E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000112</c:v>
+                  <c:v>1.1E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,20 +773,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2093946264"/>
-        <c:axId val="-2090679464"/>
+        <c:axId val="-2085249320"/>
+        <c:axId val="-2084676456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2093946264"/>
+        <c:axId val="-2085249320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090679464"/>
+        <c:crossAx val="-2084676456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -711,7 +795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090679464"/>
+        <c:axId val="-2084676456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093946264"/>
+        <c:crossAx val="-2085249320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -758,6 +842,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1000 Data Points: Dimensions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -768,64 +875,46 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+            <c:v>1000 Data Points</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Table13[[Dimensions ]]</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Matrix Calc Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$40:$C$41</c:f>
+              <c:f>Table13[Matrix Calc Time]</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.424268</c:v>
+                  <c:v>0.113594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115.140866</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg. Seeking Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$40:$D$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.001842</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.001534</c:v>
+                  <c:v>1.07526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.907067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,20 +931,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2087012536"/>
-        <c:axId val="-2087256792"/>
+        <c:axId val="-2068473688"/>
+        <c:axId val="-2081392424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087012536"/>
+        <c:axId val="-2068473688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087256792"/>
+        <c:crossAx val="-2081392424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -863,7 +953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087256792"/>
+        <c:axId val="-2081392424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +964,481 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087012536"/>
+        <c:crossAx val="-2068473688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1000 Data Points: Dimensions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100 Data Points</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.001135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.010645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.254758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.189028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2081198872"/>
+        <c:axId val="-2086775304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2081198872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2086775304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2086775304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2081198872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10000 Data Points: Dimensions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100 Data Points</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.001135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.010645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.254758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.189028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2081214136"/>
+        <c:axId val="-2086915912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2081214136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2086915912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2086915912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2081214136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10000 Data Points: Dimensions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Matrix Calc Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100 Data Points</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.001135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.010645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.254758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.189028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2082792104"/>
+        <c:axId val="-2085602680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2082792104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2085602680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2085602680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2082792104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -900,20 +1464,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>50801</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>474134</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -930,20 +1494,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>16934</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>118532</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>440267</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>497840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="13" name="Chart 12"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -960,21 +1524,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1286932</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>985520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>406399</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>284480</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -988,6 +1554,102 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>454660</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>429260</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -996,8 +1658,8 @@
   <autoFilter ref="B6:D10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="7"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="6"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="9"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1008,8 +1670,8 @@
   <autoFilter ref="B23:D27"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="5"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="4"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="7"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1020,16 +1682,32 @@
   <autoFilter ref="B39:D43"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dimensions "/>
-    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="3"/>
-    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="2"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="5"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="B51:H59" totalsRowShown="0">
-  <autoFilter ref="B51:H59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="B54:H62" totalsRowShown="0">
+  <autoFilter ref="B54:H62"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Threads"/>
+    <tableColumn id="4" name="Data Points"/>
+    <tableColumn id="5" name="Dimensions"/>
+    <tableColumn id="6" name="K"/>
+    <tableColumn id="7" name="Max. Value"/>
+    <tableColumn id="2" name="Matrix Calc Time" dataDxfId="3"/>
+    <tableColumn id="3" name="Avg. Seeking Time" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="B66:H72" totalsRowShown="0">
+  <autoFilter ref="B66:H72"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Threads"/>
     <tableColumn id="4" name="Data Points"/>
@@ -1365,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H59"/>
+  <dimension ref="B5:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1379,6 +2057,8 @@
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:4">
@@ -1553,108 +2233,37 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="3" t="s">
+    <row r="53" spans="2:8">
+      <c r="B53" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
-      <c r="B51" t="s">
+    <row r="54" spans="2:8">
+      <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>8</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>9</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E54" t="s">
         <v>10</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G54" t="s">
         <v>1</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H54" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="16" thickBot="1">
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>10000</v>
-      </c>
-      <c r="D52">
-        <v>1000</v>
-      </c>
-      <c r="E52">
-        <v>50</v>
-      </c>
-      <c r="F52">
-        <v>1000</v>
-      </c>
-      <c r="G52" s="1">
-        <v>112.225433</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1.5070000000000001E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="16" thickBot="1">
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53">
-        <v>10000</v>
-      </c>
-      <c r="D53">
-        <v>1000</v>
-      </c>
-      <c r="E53">
-        <v>50</v>
-      </c>
-      <c r="F53">
-        <v>1000</v>
-      </c>
-      <c r="G53" s="1">
-        <v>57.634889999999999</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1.2949999999999999E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="16" thickBot="1">
-      <c r="B54">
-        <f>B53*2</f>
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>10000</v>
-      </c>
-      <c r="D54">
-        <v>1000</v>
-      </c>
-      <c r="E54">
-        <v>50</v>
-      </c>
-      <c r="F54">
-        <v>1000</v>
-      </c>
-      <c r="G54" s="1">
-        <v>23.642496000000001</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1.2340000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="16" thickBot="1">
       <c r="B55">
-        <f t="shared" ref="B55:B59" si="0">B54*2</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>10000</v>
@@ -1669,16 +2278,15 @@
         <v>1000</v>
       </c>
       <c r="G55" s="1">
-        <v>12.352129</v>
+        <v>112.225433</v>
       </c>
       <c r="H55" s="1">
-        <v>1.2279999999999999E-3</v>
+        <v>1.5070000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="16" thickBot="1">
       <c r="B56">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>10000</v>
@@ -1693,16 +2301,16 @@
         <v>1000</v>
       </c>
       <c r="G56" s="1">
-        <v>8.2089569999999998</v>
+        <v>57.634889999999999</v>
       </c>
       <c r="H56" s="1">
-        <v>2.4881E-2</v>
+        <v>1.2949999999999999E-3</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="16" thickBot="1">
       <c r="B57">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>B56*2</f>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>10000</v>
@@ -1717,16 +2325,16 @@
         <v>1000</v>
       </c>
       <c r="G57" s="1">
-        <v>8.5738280000000007</v>
+        <v>23.642496000000001</v>
       </c>
       <c r="H57" s="1">
-        <v>1.3240000000000001E-3</v>
+        <v>1.2340000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="16" thickBot="1">
       <c r="B58">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f t="shared" ref="B58:B62" si="0">B57*2</f>
+        <v>8</v>
       </c>
       <c r="C58">
         <v>10000</v>
@@ -1741,16 +2349,16 @@
         <v>1000</v>
       </c>
       <c r="G58" s="1">
-        <v>10.698535</v>
-      </c>
-      <c r="H58" s="2">
-        <v>7.2356509999999998</v>
+        <v>12.352129</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.2279999999999999E-3</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="16" thickBot="1">
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>10000</v>
@@ -1765,21 +2373,264 @@
         <v>1000</v>
       </c>
       <c r="G59" s="1">
+        <v>8.2089569999999998</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2.4881E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="16" thickBot="1">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C60">
+        <v>10000</v>
+      </c>
+      <c r="D60">
+        <v>1000</v>
+      </c>
+      <c r="E60">
+        <v>50</v>
+      </c>
+      <c r="F60">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="1">
+        <v>8.5738280000000007</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1.3240000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="16" thickBot="1">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>10000</v>
+      </c>
+      <c r="D61">
+        <v>1000</v>
+      </c>
+      <c r="E61">
+        <v>50</v>
+      </c>
+      <c r="F61">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="1">
+        <v>10.698535</v>
+      </c>
+      <c r="H61" s="2">
+        <v>7.2356509999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="16" thickBot="1">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="C62">
+        <v>10000</v>
+      </c>
+      <c r="D62">
+        <v>1000</v>
+      </c>
+      <c r="E62">
+        <v>50</v>
+      </c>
+      <c r="F62">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="1">
         <v>1.6850000000000001E-3</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H62" s="2">
         <v>1.407E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="16" thickBot="1">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1000</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>1000</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1.609E-2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1.11E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="16" thickBot="1">
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>2000</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>1000</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.10647</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2.9599999999999998E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="16" thickBot="1">
+      <c r="B69">
+        <f>B68*2</f>
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>4000</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>1000</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2.9599999999999998E-4</v>
+      </c>
+      <c r="H69" s="1">
+        <v>4.08E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="16" thickBot="1">
+      <c r="B70">
+        <f t="shared" ref="B70:B72" si="1">B69*2</f>
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>8000</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>1000</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1.617753</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1.0449999999999999E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="16" thickBot="1">
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>16000</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>1000</v>
+      </c>
+      <c r="G71" s="1">
+        <v>6.1701779999999999</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2.6584E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="16" thickBot="1">
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C72">
+        <v>32000</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>1000</v>
+      </c>
+      <c r="G72" s="2">
+        <v>44.985104999999997</v>
+      </c>
+      <c r="H72" s="2">
+        <v>4.3600000000000002E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/ExcelCharts.xlsx
+++ b/ExcelCharts.xlsx
@@ -1033,11 +1033,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>100 Data Points</c:v>
+            <c:v>1000 Data Points</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$10</c:f>
+              <c:f>Table13[[Dimensions ]]</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1058,21 +1058,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:f>Table13[Avg. Seeking Time]</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.001135</c:v>
+                  <c:v>0.000112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.010645</c:v>
+                  <c:v>0.000112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.254758</c:v>
+                  <c:v>0.000112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.189028</c:v>
+                  <c:v>0.000112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,11 +1191,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>100 Data Points</c:v>
+            <c:v>10000 Data Points</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$10</c:f>
+              <c:f>Table14[[Dimensions ]]</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1216,21 +1216,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:f>Sheet1!$C$40:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.001135</c:v>
+                  <c:v>11.424268</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.010645</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.254758</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.189028</c:v>
+                  <c:v>115.140866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,7 +1347,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$10</c:f>
+              <c:f>Table14[[Dimensions ]]</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1374,21 +1368,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:f>Sheet1!$D$40:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.001135</c:v>
+                  <c:v>0.001842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.010645</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.254758</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.189028</c:v>
+                  <c:v>0.001534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,15 +1513,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>985520</xdr:colOff>
+      <xdr:colOff>786737</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>141356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>284480</xdr:colOff>
+      <xdr:colOff>85697</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>141356</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1557,15 +1545,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>108999</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:rowOff>140473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
+      <xdr:colOff>566199</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:rowOff>140473</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1588,16 +1576,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>707887</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>78409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>454660</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>6847</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>78409</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1621,15 +1609,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>80618</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>429260</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>509878</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2045,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
